--- a/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1279,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,78 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>BERINSTAIN</t>
-  </si>
-  <si>
-    <t>CARPINTEYRO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>PAZOS</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>AMALIO JARET</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>LORENA</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
   </si>
 </sst>
 </file>
@@ -558,19 +486,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +512,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,10 +538,10 @@
         <v>34</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>28</v>
@@ -622,7 +550,7 @@
         <v>82.34999999999999</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -636,19 +564,19 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>69.23</v>
+        <v>73.08</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -662,19 +590,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>62.07</v>
+        <v>65.52</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -688,19 +616,19 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>67.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -756,16 +684,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.22</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -779,16 +710,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.55</v>
+      </c>
+      <c r="H3">
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -802,16 +736,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>28</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>82.34999999999999</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -825,16 +762,19 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>69.23</v>
+      </c>
+      <c r="H5">
+        <v>6.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -848,16 +788,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>58.62</v>
+      </c>
+      <c r="H6">
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -871,16 +814,19 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>78.56999999999999</v>
+      </c>
+      <c r="H7">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -936,19 +882,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -962,19 +908,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>68.18000000000001</v>
+        <v>59.09</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -988,10 +934,10 @@
         <v>34</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>28</v>
@@ -1000,7 +946,7 @@
         <v>82.34999999999999</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1014,10 +960,10 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1026,7 +972,7 @@
         <v>69.23</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1040,10 +986,10 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -1052,7 +998,7 @@
         <v>62.07</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1066,19 +1012,19 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>67.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1121,190 +1067,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920069</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920088</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920090</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920185</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920190</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>BERINSTAIN</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO</t>
   </si>
 </sst>
 </file>
@@ -512,10 +521,10 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -524,7 +533,7 @@
         <v>72.73</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -564,10 +573,10 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>19</v>
@@ -576,7 +585,7 @@
         <v>73.08</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,10 +599,10 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>19</v>
@@ -602,7 +611,7 @@
         <v>65.52</v>
       </c>
       <c r="H6">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -684,19 +693,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>72.22</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -713,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -765,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -788,19 +797,19 @@
         <v>29</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
       <c r="F6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>58.62</v>
+        <v>62.07</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -885,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -908,10 +917,10 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>13</v>
@@ -920,7 +929,7 @@
         <v>59.09</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -960,10 +969,10 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -972,7 +981,7 @@
         <v>69.23</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -986,10 +995,10 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -998,7 +1007,7 @@
         <v>62.07</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1034,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,6 +1076,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920088</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -85,10 +85,37 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
     <t>BERINSTAIN</t>
   </si>
   <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>BANDALA</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>EZRA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>AELEN</t>
   </si>
   <si>
     <t>LUIS FERNANDO</t>
@@ -1043,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,24 +1105,93 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920088</v>
+        <v>18330051920159</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920017</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920368</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920088</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
+++ b/docentes/Duran Amezcua Maria Angelica - Estadisticos 2020.xlsx
@@ -88,34 +88,34 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>GIL</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
-    <t>GIL</t>
-  </si>
-  <si>
     <t>BERINSTAIN</t>
   </si>
   <si>
     <t>ZAMUDIO</t>
   </si>
   <si>
+    <t>BANDALA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>BANDALA</t>
-  </si>
-  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
     <t>EZRA</t>
   </si>
   <si>
+    <t>AELEN</t>
+  </si>
+  <si>
     <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>AELEN</t>
   </si>
   <si>
     <t>LUIS FERNANDO</t>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920017</v>
+        <v>18330051920368</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1143,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920368</v>
+        <v>18330051920017</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
